--- a/Tabela_sistema_BioInstitnto.xlsx
+++ b/Tabela_sistema_BioInstitnto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d1d60667f675a7b/Flavio/MarcoTulio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d1d60667f675a7b/GitHub/pyBio/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{51682159-9766-4CBA-A191-0F1EB0C1BD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E472CC0B-6284-47E3-A8D1-76E0078C1369}"/>
@@ -751,10 +751,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FB8F03-EAA1-4685-9645-FA8FEBDFDD3E}">
   <dimension ref="A1:B220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
